--- a/tests/eg-invalid2.xlsx
+++ b/tests/eg-invalid2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/surround/VocExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jamie\surround\VocExcel\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5F60D-3FC1-3640-A041-13904D842320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FEDE9A-9EE7-472A-81B7-511E76BCA9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="500" windowWidth="36180" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22845" yWindow="0" windowWidth="22740" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="273">
   <si>
     <t>When was this vocabulary first created?</t>
   </si>
@@ -964,6 +964,15 @@
   </si>
   <si>
     <t>https://linked.data.gov.au/def/induration-style/bauxitic_induration xxx</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>https://linked.data.gov.au/org/des</t>
+  </si>
+  <si>
+    <t>Department of Environment and Science, Queensland Government</t>
   </si>
 </sst>
 </file>
@@ -1488,23 +1497,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="83.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="78.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="83.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
@@ -1546,7 +1555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>40</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
@@ -1586,7 +1595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -1625,10 +1634,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>51</v>
       </c>
@@ -1642,7 +1651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>132</v>
       </c>
@@ -1653,18 +1662,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>142</v>
       </c>
@@ -1707,7 +1716,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>269</v>
       </c>
@@ -1724,7 +1733,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>143</v>
       </c>
@@ -1739,7 +1748,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>264</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>144</v>
       </c>
@@ -1770,7 +1779,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>145</v>
       </c>
@@ -1785,7 +1794,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>146</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>147</v>
       </c>
@@ -1816,7 +1825,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>148</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>149</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>150</v>
       </c>
@@ -1862,7 +1871,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>151</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>152</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>153</v>
       </c>
@@ -1907,7 +1916,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>154</v>
       </c>
@@ -1924,7 +1933,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>155</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>156</v>
       </c>
@@ -1958,7 +1967,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>157</v>
       </c>
@@ -1972,7 +1981,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>158</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>159</v>
       </c>
@@ -2000,7 +2009,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>160</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>161</v>
       </c>
@@ -2028,7 +2037,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>162</v>
       </c>
@@ -2042,7 +2051,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>163</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>164</v>
       </c>
@@ -2073,7 +2082,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>165</v>
       </c>
@@ -2090,7 +2099,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>166</v>
       </c>
@@ -2104,7 +2113,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>167</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>168</v>
       </c>
@@ -2135,7 +2144,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>169</v>
       </c>
@@ -2149,7 +2158,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>170</v>
       </c>
@@ -2163,7 +2172,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>171</v>
       </c>
@@ -2177,7 +2186,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>172</v>
       </c>
@@ -2191,7 +2200,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>173</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>174</v>
       </c>
@@ -2222,7 +2231,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>32</v>
       </c>
@@ -2240,17 +2249,24 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" xr:uid="{2820524D-8787-9645-B3A8-35DF9A50FDAB}"/>
     <hyperlink ref="A17" r:id="rId2" xr:uid="{A3C009B1-AA55-E14C-ABA9-6982338BB53B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2262,30 +2278,30 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="86.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
@@ -2296,7 +2312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
@@ -2307,7 +2323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -2318,7 +2334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>40</v>
       </c>
@@ -2329,7 +2345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>41</v>
       </c>
@@ -2340,7 +2356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
@@ -2351,7 +2367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -2362,7 +2378,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
@@ -2373,7 +2389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
@@ -2384,7 +2400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>51</v>
       </c>
@@ -2395,7 +2411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>132</v>
       </c>
@@ -2406,14 +2422,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
     </row>
-    <row r="18" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
@@ -2424,7 +2440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -2435,7 +2451,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
@@ -2446,7 +2462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
@@ -2457,7 +2473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
@@ -2468,7 +2484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>30</v>
       </c>
@@ -2479,7 +2495,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>92</v>
       </c>
@@ -2490,7 +2506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>25</v>
       </c>
@@ -2501,14 +2517,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>32</v>
       </c>
@@ -2516,7 +2532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>27</v>
       </c>
@@ -2527,7 +2543,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>26</v>
       </c>
@@ -2538,7 +2554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>33</v>
       </c>
@@ -2549,7 +2565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>25</v>
       </c>
@@ -2569,23 +2585,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="16" customWidth="1"/>
     <col min="3" max="3" width="47" style="16" customWidth="1"/>
-    <col min="4" max="4" width="62.1640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="16"/>
+    <col min="4" max="4" width="62.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
@@ -2599,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2613,7 +2629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -2627,7 +2643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>40</v>
       </c>
@@ -2641,7 +2657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
@@ -2655,7 +2671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -2669,7 +2685,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -2683,7 +2699,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
@@ -2694,7 +2710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>25</v>
       </c>
@@ -2705,10 +2721,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>51</v>
       </c>
@@ -2722,7 +2738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>132</v>
       </c>
@@ -2736,18 +2752,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>120</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>31</v>
       </c>
@@ -2773,7 +2789,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>82</v>
       </c>
@@ -2784,7 +2800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>83</v>
       </c>
@@ -2795,7 +2811,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>84</v>
       </c>
@@ -2806,7 +2822,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>85</v>
       </c>
@@ -2817,7 +2833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>86</v>
       </c>
@@ -2828,7 +2844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>32</v>
       </c>
@@ -2846,11 +2862,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="A16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
@@ -2861,6 +2872,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2868,24 +2891,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="46" style="3" customWidth="1"/>
     <col min="4" max="4" width="74" style="4" customWidth="1"/>
-    <col min="5" max="5" width="57.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="57.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
@@ -2899,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
@@ -2913,7 +2936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
@@ -2927,7 +2950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>40</v>
       </c>
@@ -2941,7 +2964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
@@ -2955,7 +2978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
@@ -2969,7 +2992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
@@ -2983,7 +3006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -2997,7 +3020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -3008,10 +3031,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>51</v>
       </c>
@@ -3025,7 +3048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>132</v>
       </c>
@@ -3036,18 +3059,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -3073,7 +3096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>94</v>
       </c>
@@ -3093,7 +3116,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>100</v>
       </c>
@@ -3108,7 +3131,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>101</v>
       </c>
@@ -3125,7 +3148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>102</v>
       </c>
@@ -3139,7 +3162,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>134</v>
       </c>
@@ -3153,7 +3176,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -3170,7 +3193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -3188,11 +3211,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A16" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
@@ -3200,30 +3218,42 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3234,7 +3264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3245,7 +3275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3256,7 +3286,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -3267,7 +3297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3276,6 +3306,17 @@
       </c>
       <c r="C6" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3285,6 +3326,7 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{3A3E01DC-D03B-4236-A780-5076BA6243A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3299,13 +3341,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -3313,7 +3355,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -3321,7 +3363,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
